--- a/data/trans_orig/P34A_R-Edad-trans_orig.xlsx
+++ b/data/trans_orig/P34A_R-Edad-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>123915</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>104426</v>
+        <v>105060</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>143010</v>
+        <v>145609</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.254071090757698</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.2141101642931575</v>
+        <v>0.2154109423587231</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2932226677935216</v>
+        <v>0.2985501471863579</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>197</v>
@@ -765,19 +765,19 @@
         <v>194946</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>173725</v>
+        <v>177204</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>215822</v>
+        <v>216344</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.4255904483731527</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3792629480057143</v>
+        <v>0.3868579412591125</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4711658428331131</v>
+        <v>0.4723066562196569</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>319</v>
@@ -786,19 +786,19 @@
         <v>318861</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>291245</v>
+        <v>292288</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>347440</v>
+        <v>347261</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.3371413766250727</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.3079418665827262</v>
+        <v>0.309045470519382</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.3673584929107521</v>
+        <v>0.3671692488350926</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>363804</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>344709</v>
+        <v>342110</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>383293</v>
+        <v>382659</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.7459289092423019</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7067773322064783</v>
+        <v>0.7014498528136421</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.7858898357068423</v>
+        <v>0.7845890576412768</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>282</v>
@@ -836,19 +836,19 @@
         <v>263113</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>242237</v>
+        <v>241715</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>284334</v>
+        <v>280855</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.5744095516268473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5288341571668869</v>
+        <v>0.527693343780343</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6207370519942857</v>
+        <v>0.6131420587408873</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>653</v>
@@ -857,19 +857,19 @@
         <v>626917</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>598338</v>
+        <v>598517</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>654533</v>
+        <v>653490</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.6628586233749273</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6326415070892482</v>
+        <v>0.6328307511649074</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.6920581334172738</v>
+        <v>0.6909545294806181</v>
       </c>
     </row>
     <row r="6">
@@ -961,19 +961,19 @@
         <v>261782</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>234762</v>
+        <v>235929</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>290363</v>
+        <v>289785</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3633042607358776</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.3258054391151284</v>
+        <v>0.3274250229851731</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.4029696810153124</v>
+        <v>0.4021663140430063</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>259</v>
@@ -982,19 +982,19 @@
         <v>275749</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>250241</v>
+        <v>251797</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>300366</v>
+        <v>297754</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.4481516989243033</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.406696932769925</v>
+        <v>0.4092256960525229</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.488160107273276</v>
+        <v>0.4839155815441158</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>508</v>
@@ -1003,19 +1003,19 @@
         <v>537530</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>500159</v>
+        <v>501823</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>573223</v>
+        <v>576316</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.4023852639839379</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.374409385891086</v>
+        <v>0.3756556691664583</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.4291039415590089</v>
+        <v>0.4314194444557607</v>
       </c>
     </row>
     <row r="8">
@@ -1032,19 +1032,19 @@
         <v>458777</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>430196</v>
+        <v>430774</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>485797</v>
+        <v>484630</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.6366957392641225</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.5970303189846876</v>
+        <v>0.5978336859569939</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.6741945608848714</v>
+        <v>0.6725749770148272</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>322</v>
@@ -1053,19 +1053,19 @@
         <v>339553</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>314936</v>
+        <v>317548</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>365061</v>
+        <v>363505</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.5518483010756967</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5118398927267238</v>
+        <v>0.5160844184558842</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.5933030672300749</v>
+        <v>0.5907743039474771</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>763</v>
@@ -1074,19 +1074,19 @@
         <v>798330</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>762637</v>
+        <v>759544</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>835701</v>
+        <v>834037</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.5976147360160622</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.5708960584409911</v>
+        <v>0.5685805555442394</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.625590614108914</v>
+        <v>0.6243443308335418</v>
       </c>
     </row>
     <row r="9">
@@ -1178,19 +1178,19 @@
         <v>280173</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>254702</v>
+        <v>254293</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>307200</v>
+        <v>305191</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.4435660814209283</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.4032403380152793</v>
+        <v>0.4025926424629266</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.4863547108217761</v>
+        <v>0.4831745859599835</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>284</v>
@@ -1199,19 +1199,19 @@
         <v>301170</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>274090</v>
+        <v>276575</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>326369</v>
+        <v>326910</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.4462159313633053</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.4060935344484243</v>
+        <v>0.409775863117103</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4835508059507249</v>
+        <v>0.484353404559792</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>546</v>
@@ -1220,19 +1220,19 @@
         <v>581343</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>545999</v>
+        <v>544941</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>615598</v>
+        <v>618757</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.444934919220359</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.4178842640244845</v>
+        <v>0.4170743057612893</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4711518710808802</v>
+        <v>0.4735701551234638</v>
       </c>
     </row>
     <row r="11">
@@ -1249,19 +1249,19 @@
         <v>351465</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>324438</v>
+        <v>326447</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>376936</v>
+        <v>377345</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.5564339185790717</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.5136452891782241</v>
+        <v>0.5168254140400165</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.5967596619847209</v>
+        <v>0.5974073575370733</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>360</v>
@@ -1270,19 +1270,19 @@
         <v>373772</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>348573</v>
+        <v>348032</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>400852</v>
+        <v>398367</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.5537840686366947</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5164491940492749</v>
+        <v>0.5156465954402083</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.5939064655515754</v>
+        <v>0.590224136882897</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>704</v>
@@ -1291,19 +1291,19 @@
         <v>725237</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>690982</v>
+        <v>687823</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>760581</v>
+        <v>761639</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.5550650807796409</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5288481289191198</v>
+        <v>0.5264298448765362</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.5821157359755155</v>
+        <v>0.5829256942387107</v>
       </c>
     </row>
     <row r="12">
@@ -1395,19 +1395,19 @@
         <v>254209</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>232145</v>
+        <v>233346</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>279255</v>
+        <v>280709</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.4938954057679379</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.4510276786252266</v>
+        <v>0.4533607022510986</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.542556129196532</v>
+        <v>0.5453811168671567</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>214</v>
@@ -1416,19 +1416,19 @@
         <v>222075</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>200722</v>
+        <v>198331</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>245214</v>
+        <v>245044</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.4405521723634639</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3981917853482853</v>
+        <v>0.3934492697944338</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4864551873991801</v>
+        <v>0.4861166306967275</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>450</v>
@@ -1437,19 +1437,19 @@
         <v>476284</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>442837</v>
+        <v>446091</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>510697</v>
+        <v>511412</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.4675017691016601</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.4346714999485597</v>
+        <v>0.4378649435304255</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.5012795869077146</v>
+        <v>0.5019820178012772</v>
       </c>
     </row>
     <row r="14">
@@ -1466,19 +1466,19 @@
         <v>260493</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>235447</v>
+        <v>233993</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>282557</v>
+        <v>281356</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.5061045942320621</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.457443870803468</v>
+        <v>0.4546188831328433</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.5489723213747735</v>
+        <v>0.5466392977489013</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>277</v>
@@ -1487,19 +1487,19 @@
         <v>282009</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>258870</v>
+        <v>259040</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>303362</v>
+        <v>305753</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.5594478276365361</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.51354481260082</v>
+        <v>0.5138833693032725</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6018082146517145</v>
+        <v>0.6065507302055664</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>521</v>
@@ -1508,19 +1508,19 @@
         <v>542502</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>508089</v>
+        <v>507374</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>575949</v>
+        <v>572695</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.5324982308983398</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.4987204130922854</v>
+        <v>0.4980179821987228</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.5653285000514405</v>
+        <v>0.5621350564695745</v>
       </c>
     </row>
     <row r="15">
@@ -1612,19 +1612,19 @@
         <v>191416</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>173826</v>
+        <v>173652</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>210981</v>
+        <v>210297</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.5050706009480663</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.4586571909156814</v>
+        <v>0.4581990877960944</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.5566959975636321</v>
+        <v>0.5548919106400005</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>171</v>
@@ -1633,19 +1633,19 @@
         <v>175328</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>156661</v>
+        <v>154353</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>195761</v>
+        <v>195600</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4385363307611937</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.3918462440956885</v>
+        <v>0.3860727546304611</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.4896438300187191</v>
+        <v>0.4892432105675725</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>367</v>
@@ -1654,19 +1654,19 @@
         <v>366743</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>338336</v>
+        <v>337069</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>396247</v>
+        <v>393979</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4709143413137161</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.4344378655075689</v>
+        <v>0.432811361889668</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.5087979501963003</v>
+        <v>0.5058860209895062</v>
       </c>
     </row>
     <row r="17">
@@ -1683,19 +1683,19 @@
         <v>187572</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>168007</v>
+        <v>168691</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>205162</v>
+        <v>205336</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.4949293990519337</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.443304002436368</v>
+        <v>0.4451080893599995</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.5413428090843186</v>
+        <v>0.5418009122039057</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>221</v>
@@ -1704,19 +1704,19 @@
         <v>224474</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>204041</v>
+        <v>204202</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>243141</v>
+        <v>245449</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5614636692388063</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5103561699812809</v>
+        <v>0.5107567894324275</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6081537559043115</v>
+        <v>0.613927245369539</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>410</v>
@@ -1725,19 +1725,19 @@
         <v>412047</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>382543</v>
+        <v>384811</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>440454</v>
+        <v>441721</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5290856586862839</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.4912020498036995</v>
+        <v>0.4941139790104936</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.565562134492431</v>
+        <v>0.567188638110332</v>
       </c>
     </row>
     <row r="18">
@@ -1829,19 +1829,19 @@
         <v>112333</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>95255</v>
+        <v>96286</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>129624</v>
+        <v>128228</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.38854766088839</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3294769041679769</v>
+        <v>0.3330427731524396</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.4483554261184504</v>
+        <v>0.4435266702245985</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>175</v>
@@ -1850,19 +1850,19 @@
         <v>162270</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>144726</v>
+        <v>146458</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>180665</v>
+        <v>179141</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4793106275290813</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4274897201720287</v>
+        <v>0.4326049539651626</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5336465442993226</v>
+        <v>0.5291435878358738</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>292</v>
@@ -1871,19 +1871,19 @@
         <v>274603</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>251675</v>
+        <v>252618</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>298070</v>
+        <v>297903</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.437503659105538</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.4009747233390397</v>
+        <v>0.4024774649838073</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4748925617227878</v>
+        <v>0.4746266583633185</v>
       </c>
     </row>
     <row r="20">
@@ -1900,19 +1900,19 @@
         <v>176777</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>159486</v>
+        <v>160882</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>193855</v>
+        <v>192824</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.61145233911161</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.55164457388155</v>
+        <v>0.5564733297754016</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6705230958320233</v>
+        <v>0.6669572268475608</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>191</v>
@@ -1921,19 +1921,19 @@
         <v>176278</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>157883</v>
+        <v>159407</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>193822</v>
+        <v>192090</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5206893724709187</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4663534557006775</v>
+        <v>0.4708564121641262</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5725102798279718</v>
+        <v>0.5673950460348374</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>373</v>
@@ -1942,19 +1942,19 @@
         <v>353055</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>329588</v>
+        <v>329755</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>375983</v>
+        <v>375040</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.562496340894462</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5251074382772121</v>
+        <v>0.5253733416366809</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.5990252766609602</v>
+        <v>0.5975225350161927</v>
       </c>
     </row>
     <row r="21">
@@ -2046,19 +2046,19 @@
         <v>103300</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>88637</v>
+        <v>88526</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>116791</v>
+        <v>116750</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4946144801751899</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.4244055566950095</v>
+        <v>0.4238747999993163</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5592123329713782</v>
+        <v>0.5590177546186303</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>173</v>
@@ -2067,19 +2067,19 @@
         <v>199526</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>181864</v>
+        <v>181195</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>216901</v>
+        <v>219500</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6082695485967922</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5544256662719357</v>
+        <v>0.5523857572583286</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6612400622322573</v>
+        <v>0.6691611761188164</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>282</v>
@@ -2088,19 +2088,19 @@
         <v>302825</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>279535</v>
+        <v>280829</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>324540</v>
+        <v>328599</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5640564617746128</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5206747626211552</v>
+        <v>0.523086508515505</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.604503098385889</v>
+        <v>0.6120634539862445</v>
       </c>
     </row>
     <row r="23">
@@ -2117,19 +2117,19 @@
         <v>105549</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>92058</v>
+        <v>92099</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>120212</v>
+        <v>120323</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.5053855198248101</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4407876670286218</v>
+        <v>0.4409822453813696</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.5755944433049902</v>
+        <v>0.5761252000006837</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>112</v>
@@ -2138,19 +2138,19 @@
         <v>128496</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>111121</v>
+        <v>108522</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>146158</v>
+        <v>146827</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3917304514032078</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3387599377677427</v>
+        <v>0.3308388238811835</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4455743337280642</v>
+        <v>0.4476142427416714</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>222</v>
@@ -2159,19 +2159,19 @@
         <v>234045</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>212330</v>
+        <v>208271</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>257335</v>
+        <v>256041</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.4359435382253872</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3954969016141111</v>
+        <v>0.3879365460137558</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4793252373788447</v>
+        <v>0.4769134914844951</v>
       </c>
     </row>
     <row r="24">
@@ -2263,19 +2263,19 @@
         <v>1327127</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1268004</v>
+        <v>1271963</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1384343</v>
+        <v>1380932</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.4106765660559558</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3923809561173278</v>
+        <v>0.3936060048574851</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.4283818665055228</v>
+        <v>0.427326219942221</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1473</v>
@@ -2284,19 +2284,19 @@
         <v>1531062</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1469091</v>
+        <v>1475005</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1585963</v>
+        <v>1590618</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4613358319613749</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4426627167553541</v>
+        <v>0.4444447820239393</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.477878378661411</v>
+        <v>0.4792810034845691</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2764</v>
@@ -2305,19 +2305,19 @@
         <v>2858190</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2781063</v>
+        <v>2780722</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2934903</v>
+        <v>2945061</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.4363433802622917</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.4245688393630899</v>
+        <v>0.4245167822260319</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.4480548335314721</v>
+        <v>0.4496054819986829</v>
       </c>
     </row>
     <row r="26">
@@ -2334,19 +2334,19 @@
         <v>1904436</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>1847220</v>
+        <v>1850631</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>1963559</v>
+        <v>1959600</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.5893234339440443</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.5716181334944773</v>
+        <v>0.5726737800577792</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6076190438826725</v>
+        <v>0.606393995142515</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1765</v>
@@ -2355,19 +2355,19 @@
         <v>1787697</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1732796</v>
+        <v>1728141</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>1849668</v>
+        <v>1843754</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5386641680386252</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5221216213385891</v>
+        <v>0.520718996515431</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5573372832446459</v>
+        <v>0.5555552179760608</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>3646</v>
@@ -2376,19 +2376,19 @@
         <v>3692132</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>3615419</v>
+        <v>3605261</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>3769259</v>
+        <v>3769600</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.5636566197377083</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.5519451664685279</v>
+        <v>0.550394518001317</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.5754311606369101</v>
+        <v>0.5754832177739679</v>
       </c>
     </row>
     <row r="27">
@@ -2723,19 +2723,19 @@
         <v>71310</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>57143</v>
+        <v>55636</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>86811</v>
+        <v>86128</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1570207035648865</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1258251198026859</v>
+        <v>0.1225063748416926</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.1911527153987342</v>
+        <v>0.1896473567749948</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>125</v>
@@ -2744,19 +2744,19 @@
         <v>126252</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>107781</v>
+        <v>108242</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>144932</v>
+        <v>145540</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.2934519623906068</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.2505188710836762</v>
+        <v>0.2515908414180176</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.3368703245773585</v>
+        <v>0.3382845060455943</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>194</v>
@@ -2765,19 +2765,19 @@
         <v>197562</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>175061</v>
+        <v>174722</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>223675</v>
+        <v>225234</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.223391564660595</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.1979484646142301</v>
+        <v>0.1975655332168802</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2529180083166348</v>
+        <v>0.254681676494378</v>
       </c>
     </row>
     <row r="5">
@@ -2794,19 +2794,19 @@
         <v>382836</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>367335</v>
+        <v>368018</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>397003</v>
+        <v>398510</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8429792964351135</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.8088472846012659</v>
+        <v>0.8103526432250052</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8741748801973144</v>
+        <v>0.8774936251583074</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>296</v>
@@ -2815,19 +2815,19 @@
         <v>303978</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>285298</v>
+        <v>284690</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>322449</v>
+        <v>321988</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.7065480376093932</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.6631296754226415</v>
+        <v>0.6617154939544057</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.7494811289163239</v>
+        <v>0.7484091585819825</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>673</v>
@@ -2836,19 +2836,19 @@
         <v>686814</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>660701</v>
+        <v>659142</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>709315</v>
+        <v>709654</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.776608435339405</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7470819916833652</v>
+        <v>0.7453183235056222</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.8020515353857699</v>
+        <v>0.80243446678312</v>
       </c>
     </row>
     <row r="6">
@@ -2940,19 +2940,19 @@
         <v>133591</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>112532</v>
+        <v>111464</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>156091</v>
+        <v>153943</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.1949302451291215</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1642013211900044</v>
+        <v>0.162642610475068</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2277609910291864</v>
+        <v>0.2246265631624668</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>161</v>
@@ -2961,19 +2961,19 @@
         <v>170560</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>146559</v>
+        <v>149913</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>194387</v>
+        <v>195269</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2794901619097477</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2401606745090315</v>
+        <v>0.2456555608830777</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3185343045681137</v>
+        <v>0.3199801318593646</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>293</v>
@@ -2982,19 +2982,19 @@
         <v>304152</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>274998</v>
+        <v>276657</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>333661</v>
+        <v>335027</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2347602575246413</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.212258021606632</v>
+        <v>0.2135382275060918</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2575368233976347</v>
+        <v>0.2585910761547416</v>
       </c>
     </row>
     <row r="8">
@@ -3011,19 +3011,19 @@
         <v>551738</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>529238</v>
+        <v>531386</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>572797</v>
+        <v>573865</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.8050697548708785</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.7722390089708134</v>
+        <v>0.7753734368375332</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.8357986788099951</v>
+        <v>0.837357389524932</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>410</v>
@@ -3032,19 +3032,19 @@
         <v>439695</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>415868</v>
+        <v>414986</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>463696</v>
+        <v>460342</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.7205098380902524</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.6814656954318863</v>
+        <v>0.6800198681406353</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.7598393254909684</v>
+        <v>0.7543444391169223</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>943</v>
@@ -3053,19 +3053,19 @@
         <v>991433</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>961924</v>
+        <v>960558</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>1020587</v>
+        <v>1018928</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.7652397424753588</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.7424631766023653</v>
+        <v>0.7414089238452585</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.787741978393368</v>
+        <v>0.7864617724939083</v>
       </c>
     </row>
     <row r="9">
@@ -3157,19 +3157,19 @@
         <v>170514</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>150017</v>
+        <v>146401</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>196764</v>
+        <v>194200</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.2500705720889257</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.2200111597553767</v>
+        <v>0.2147069296702636</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.2885680214302812</v>
+        <v>0.284807433219853</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>190</v>
@@ -3178,19 +3178,19 @@
         <v>200494</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>177283</v>
+        <v>176550</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>225777</v>
+        <v>227723</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.2820479018718723</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.2493955962010251</v>
+        <v>0.2483647660254947</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3176149868198359</v>
+        <v>0.320352651742167</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>352</v>
@@ -3199,19 +3199,19 @@
         <v>371007</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>336306</v>
+        <v>337035</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>404824</v>
+        <v>403713</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.2663920145180391</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.24147559882693</v>
+        <v>0.2419991748751696</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.2906734844988744</v>
+        <v>0.2898757510934432</v>
       </c>
     </row>
     <row r="11">
@@ -3228,19 +3228,19 @@
         <v>511349</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>485099</v>
+        <v>487663</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>531846</v>
+        <v>535462</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.7499294279110743</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.7114319785697188</v>
+        <v>0.7151925667801472</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.7799888402446233</v>
+        <v>0.7852930703297365</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>477</v>
@@ -3249,19 +3249,19 @@
         <v>510356</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>485073</v>
+        <v>483127</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>533567</v>
+        <v>534300</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.7179520981281277</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6823850131801641</v>
+        <v>0.6796473482578331</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.750604403798975</v>
+        <v>0.7516352339745053</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>966</v>
@@ -3270,19 +3270,19 @@
         <v>1021705</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>987888</v>
+        <v>988999</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>1056406</v>
+        <v>1055677</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.7336079854819608</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.7093265155011256</v>
+        <v>0.7101242489065568</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.7585244011730701</v>
+        <v>0.75800082512483</v>
       </c>
     </row>
     <row r="12">
@@ -3374,19 +3374,19 @@
         <v>153019</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>131352</v>
+        <v>131680</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>178300</v>
+        <v>178074</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.248966385907163</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2137135123685553</v>
+        <v>0.2142478671596429</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.2900992570604324</v>
+        <v>0.2897320680591306</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>155</v>
@@ -3395,19 +3395,19 @@
         <v>175224</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>154077</v>
+        <v>151436</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>200514</v>
+        <v>199701</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2843624756143259</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2500443365334815</v>
+        <v>0.2457582453408389</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3254050596523045</v>
+        <v>0.3240855020627055</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>290</v>
@@ -3416,19 +3416,19 @@
         <v>328243</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>297758</v>
+        <v>295207</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>363093</v>
+        <v>358606</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2666871845768213</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.2419189978695303</v>
+        <v>0.2398464947812787</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2950018379416025</v>
+        <v>0.2913559445981817</v>
       </c>
     </row>
     <row r="14">
@@ -3445,19 +3445,19 @@
         <v>461598</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>436317</v>
+        <v>436543</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>483265</v>
+        <v>482937</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.751033614092837</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.7099007429395674</v>
+        <v>0.7102679319408695</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.7862864876314447</v>
+        <v>0.7857521328403572</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>384</v>
@@ -3466,19 +3466,19 @@
         <v>440975</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>415685</v>
+        <v>416498</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>462122</v>
+        <v>464763</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.7156375243856741</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6745949403476953</v>
+        <v>0.6759144979372945</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.749955663466518</v>
+        <v>0.7542417546591611</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>797</v>
@@ -3487,19 +3487,19 @@
         <v>902573</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>867723</v>
+        <v>872210</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>933058</v>
+        <v>935609</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.7333128154231787</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.7049981620583975</v>
+        <v>0.7086440554018183</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.7580810021304698</v>
+        <v>0.7601535052187213</v>
       </c>
     </row>
     <row r="15">
@@ -3591,19 +3591,19 @@
         <v>106421</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>89525</v>
+        <v>88647</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>125888</v>
+        <v>125590</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.2478208579765619</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.2084734743561397</v>
+        <v>0.2064287795888237</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.2931522748739052</v>
+        <v>0.2924585576866784</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>104</v>
@@ -3612,19 +3612,19 @@
         <v>114230</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>96285</v>
+        <v>96609</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>133457</v>
+        <v>134302</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.2550924951532754</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.2150171922123505</v>
+        <v>0.2157413609493049</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.2980270274563681</v>
+        <v>0.2999148993137861</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>202</v>
@@ -3633,19 +3633,19 @@
         <v>220652</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>195751</v>
+        <v>195247</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>249096</v>
+        <v>248910</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.2515328174922613</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.2231469043785345</v>
+        <v>0.2225724811558556</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.283958077356563</v>
+        <v>0.2837460955361199</v>
       </c>
     </row>
     <row r="17">
@@ -3662,19 +3662,19 @@
         <v>323008</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>303541</v>
+        <v>303839</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>339904</v>
+        <v>340782</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.7521791420234382</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.7068477251260947</v>
+        <v>0.7075414423133217</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.7915265256438602</v>
+        <v>0.7935712204111764</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>302</v>
@@ -3683,19 +3683,19 @@
         <v>333570</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>314343</v>
+        <v>313498</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>351515</v>
+        <v>351191</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.7449075048467246</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.7019729725436319</v>
+        <v>0.700085100686214</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.7849828077876495</v>
+        <v>0.7842586390506953</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>597</v>
@@ -3704,19 +3704,19 @@
         <v>656577</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>628133</v>
+        <v>628319</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>681478</v>
+        <v>681982</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.7484671825077387</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.7160419226434371</v>
+        <v>0.7162539044638803</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.7768530956214654</v>
+        <v>0.7774275188441445</v>
       </c>
     </row>
     <row r="18">
@@ -3808,19 +3808,19 @@
         <v>66105</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>51004</v>
+        <v>52816</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>82674</v>
+        <v>82793</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.2133881201388984</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.1646436779488977</v>
+        <v>0.1704926596930437</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.266873601012517</v>
+        <v>0.2672595561440833</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>112</v>
@@ -3829,19 +3829,19 @@
         <v>116168</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>97782</v>
+        <v>98961</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>134196</v>
+        <v>135407</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3281611337724186</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2762223451092257</v>
+        <v>0.2795540004755089</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3790890039053422</v>
+        <v>0.3825088020538838</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>169</v>
@@ -3850,19 +3850,19 @@
         <v>182272</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>159361</v>
+        <v>159749</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>207055</v>
+        <v>207135</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.274596734677491</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2400807132851652</v>
+        <v>0.2406654312894987</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3119329528642766</v>
+        <v>0.3120530617717807</v>
       </c>
     </row>
     <row r="20">
@@ -3879,19 +3879,19 @@
         <v>243681</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>227112</v>
+        <v>226993</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>258782</v>
+        <v>256970</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.7866118798611016</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.7331263989874829</v>
+        <v>0.7327404438559166</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.8353563220511022</v>
+        <v>0.8295073403069563</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>232</v>
@@ -3900,19 +3900,19 @@
         <v>237828</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>219800</v>
+        <v>218589</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>256214</v>
+        <v>255035</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.6718388662275815</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.6209109960946578</v>
+        <v>0.6174911979461164</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.7237776548907743</v>
+        <v>0.7204459995244912</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>457</v>
@@ -3921,19 +3921,19 @@
         <v>481510</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>456727</v>
+        <v>456647</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>504421</v>
+        <v>504033</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.725403265322509</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6880670471357235</v>
+        <v>0.6879469382282194</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.7599192867148348</v>
+        <v>0.7593345687105013</v>
       </c>
     </row>
     <row r="21">
@@ -4025,19 +4025,19 @@
         <v>68768</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>55961</v>
+        <v>55173</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>86854</v>
+        <v>84294</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.2752363232830287</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.223976706601036</v>
+        <v>0.2208234172587119</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.3476249935234406</v>
+        <v>0.3373752197843776</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>179</v>
@@ -4046,19 +4046,19 @@
         <v>197901</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>177549</v>
+        <v>178367</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>217335</v>
+        <v>220764</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.5102108022274126</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.4577401322058773</v>
+        <v>0.4598510015222645</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.5603125919738826</v>
+        <v>0.5691538889646061</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>242</v>
@@ -4067,19 +4067,19 @@
         <v>266669</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>241505</v>
+        <v>237989</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>294296</v>
+        <v>292215</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.4181524403742165</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.3786934067380998</v>
+        <v>0.3731799320482916</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.4614734414368155</v>
+        <v>0.4582090698841122</v>
       </c>
     </row>
     <row r="23">
@@ -4096,19 +4096,19 @@
         <v>181083</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>162997</v>
+        <v>165557</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>193890</v>
+        <v>194678</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.7247636767169713</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.652375006476559</v>
+        <v>0.6626247802156223</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.776023293398964</v>
+        <v>0.779176582741288</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>170</v>
@@ -4117,19 +4117,19 @@
         <v>189980</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>170546</v>
+        <v>167117</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>210332</v>
+        <v>209514</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.4897891977725874</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.4396874080261174</v>
+        <v>0.4308461110353941</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.5422598677941229</v>
+        <v>0.5401489984777355</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>329</v>
@@ -4138,19 +4138,19 @@
         <v>371063</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>343436</v>
+        <v>345517</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>396227</v>
+        <v>399743</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.5818475596257835</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.5385265585631845</v>
+        <v>0.5417909301158877</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.6213065932619002</v>
+        <v>0.6268200679517084</v>
       </c>
     </row>
     <row r="24">
@@ -4242,19 +4242,19 @@
         <v>769729</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>721938</v>
+        <v>714917</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>819174</v>
+        <v>821697</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2247369141775843</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2107835588097481</v>
+        <v>0.2087335794035335</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2391734075614731</v>
+        <v>0.2399099270594574</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1026</v>
@@ -4263,19 +4263,19 @@
         <v>1100829</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1046330</v>
+        <v>1047095</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1159810</v>
+        <v>1164093</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3094640737154594</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2941432922116361</v>
+        <v>0.2943584660673423</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3260448439393452</v>
+        <v>0.3272488815805965</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1742</v>
@@ -4284,19 +4284,19 @@
         <v>1870558</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1789072</v>
+        <v>1792985</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1944875</v>
+        <v>1952553</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2679025383836764</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2562321568058876</v>
+        <v>0.2567925325237297</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2785462774599574</v>
+        <v>0.2796458947591188</v>
       </c>
     </row>
     <row r="26">
@@ -4313,19 +4313,19 @@
         <v>2655292</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2605847</v>
+        <v>2603324</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2703083</v>
+        <v>2710104</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.7752630858224157</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.760826592438527</v>
+        <v>0.7600900729405425</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.7892164411902518</v>
+        <v>0.7912664205964665</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>2271</v>
@@ -4334,19 +4334,19 @@
         <v>2456382</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2397401</v>
+        <v>2393118</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2510881</v>
+        <v>2510116</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.6905359262845406</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.6739551560606548</v>
+        <v>0.6727511184194036</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.7058567077883638</v>
+        <v>0.7056415339326577</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4762</v>
@@ -4355,19 +4355,19 @@
         <v>5111674</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>5037357</v>
+        <v>5029679</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>5193160</v>
+        <v>5189247</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.7320974616163236</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.7214537225400424</v>
+        <v>0.7203541052408811</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.7437678431941123</v>
+        <v>0.7432074674762701</v>
       </c>
     </row>
     <row r="27">
@@ -4702,19 +4702,19 @@
         <v>79388</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>64762</v>
+        <v>63141</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>97155</v>
+        <v>95724</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1892617659691819</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.1543925531806796</v>
+        <v>0.1505276955410259</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2316170211228012</v>
+        <v>0.228207057667759</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>152</v>
@@ -4723,19 +4723,19 @@
         <v>151343</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>132234</v>
+        <v>132567</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>170534</v>
+        <v>169261</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.3824166814320527</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3341297581071058</v>
+        <v>0.3349727267455407</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.430906992219265</v>
+        <v>0.4276917679473328</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>226</v>
@@ -4744,19 +4744,19 @@
         <v>230732</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>206245</v>
+        <v>205656</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>259197</v>
+        <v>256273</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2830305787322071</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2529931089310063</v>
+        <v>0.2522715636899326</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.317947885159247</v>
+        <v>0.3143613109833997</v>
       </c>
     </row>
     <row r="5">
@@ -4773,19 +4773,19 @@
         <v>340075</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>322308</v>
+        <v>323739</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>354701</v>
+        <v>356322</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8107382340308181</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7683829788771989</v>
+        <v>0.771792942332241</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.8456074468193207</v>
+        <v>0.8494723044589743</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>252</v>
@@ -4794,19 +4794,19 @@
         <v>244412</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>225221</v>
+        <v>226494</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>263521</v>
+        <v>263188</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6175833185679473</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.569093007780735</v>
+        <v>0.5723082320526671</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6658702418928948</v>
+        <v>0.6650272732544593</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>571</v>
@@ -4815,19 +4815,19 @@
         <v>584486</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>556021</v>
+        <v>558945</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>608973</v>
+        <v>609562</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.7169694212677928</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.6820521148407529</v>
+        <v>0.6856386890166003</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7470068910689937</v>
+        <v>0.7477284363100674</v>
       </c>
     </row>
     <row r="6">
@@ -4919,19 +4919,19 @@
         <v>157201</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>135671</v>
+        <v>137479</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>180044</v>
+        <v>178699</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2662194105892263</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2297573777529188</v>
+        <v>0.232819799546872</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3049022712813954</v>
+        <v>0.3026250939529475</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>215</v>
@@ -4940,19 +4940,19 @@
         <v>208483</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>187972</v>
+        <v>187658</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>231307</v>
+        <v>230972</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.369948966884077</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3335532810008929</v>
+        <v>0.3329964508452392</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4104503533911096</v>
+        <v>0.4098553274895997</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>365</v>
@@ -4961,19 +4961,19 @@
         <v>365684</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>335788</v>
+        <v>335292</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>399573</v>
+        <v>394534</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.3168728879495163</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2909669631713507</v>
+        <v>0.2905379303120241</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3462385669083295</v>
+        <v>0.3418723491116405</v>
       </c>
     </row>
     <row r="8">
@@ -4990,19 +4990,19 @@
         <v>433295</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>410452</v>
+        <v>411797</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>454825</v>
+        <v>453017</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.7337805894107737</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6950977287186046</v>
+        <v>0.6973749060470524</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7702426222470812</v>
+        <v>0.767180200453128</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>364</v>
@@ -5011,19 +5011,19 @@
         <v>355061</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>332237</v>
+        <v>332572</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>375572</v>
+        <v>375886</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.630051033115923</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5895496466088904</v>
+        <v>0.5901446725104003</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6664467189991072</v>
+        <v>0.6670035491547607</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>781</v>
@@ -5032,19 +5032,19 @@
         <v>788356</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>754467</v>
+        <v>759506</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>818252</v>
+        <v>818748</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6831271120504837</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6537614330916702</v>
+        <v>0.6581276508883595</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.7090330368286492</v>
+        <v>0.7094620696879754</v>
       </c>
     </row>
     <row r="9">
@@ -5136,19 +5136,19 @@
         <v>234453</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>212131</v>
+        <v>211800</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>261048</v>
+        <v>261786</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.350401674019081</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3170404212929713</v>
+        <v>0.3165463886108792</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3901496249519216</v>
+        <v>0.3912520322693491</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>233</v>
@@ -5157,19 +5157,19 @@
         <v>230148</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>203342</v>
+        <v>205535</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>253515</v>
+        <v>256822</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.3479788643910323</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3074481422612393</v>
+        <v>0.3107634786253666</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.3833083567789179</v>
+        <v>0.3883089993867342</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>458</v>
@@ -5178,19 +5178,19 @@
         <v>464601</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>430670</v>
+        <v>429806</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>504292</v>
+        <v>499594</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3491972895347337</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3236943082368337</v>
+        <v>0.3230448519306803</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.3790293256966362</v>
+        <v>0.3754980577327327</v>
       </c>
     </row>
     <row r="11">
@@ -5207,19 +5207,19 @@
         <v>434644</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>408049</v>
+        <v>407311</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>456966</v>
+        <v>457297</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.649598325980919</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6098503750480784</v>
+        <v>0.6087479677306508</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6829595787070287</v>
+        <v>0.6834536113891208</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>432</v>
@@ -5228,19 +5228,19 @@
         <v>431238</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>407871</v>
+        <v>404564</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>458044</v>
+        <v>455851</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.6520211356089677</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.6166916432210821</v>
+        <v>0.6116910006132658</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6925518577387606</v>
+        <v>0.6892365213746333</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>845</v>
@@ -5249,19 +5249,19 @@
         <v>865882</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>826191</v>
+        <v>830889</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>899813</v>
+        <v>900677</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.6508027104652663</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.6209706743033637</v>
+        <v>0.6245019422672673</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6763056917631661</v>
+        <v>0.6769551480693198</v>
       </c>
     </row>
     <row r="12">
@@ -5353,19 +5353,19 @@
         <v>247415</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>221247</v>
+        <v>222087</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>274011</v>
+        <v>272797</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3829673083160889</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3424628093175313</v>
+        <v>0.3437629520202437</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4241334300444479</v>
+        <v>0.4222553016965306</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>225</v>
@@ -5374,19 +5374,19 @@
         <v>247916</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>223290</v>
+        <v>223186</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>273400</v>
+        <v>272370</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3819523262092305</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3440111848138888</v>
+        <v>0.343850929908195</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.4212142533769432</v>
+        <v>0.4196269411947538</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>447</v>
@@ -5395,19 +5395,19 @@
         <v>495332</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>459613</v>
+        <v>455618</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>527763</v>
+        <v>527285</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3824586304985644</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3548794099204092</v>
+        <v>0.3517944564868886</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.4074995428396616</v>
+        <v>0.4071307311652098</v>
       </c>
     </row>
     <row r="14">
@@ -5424,19 +5424,19 @@
         <v>398633</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>372037</v>
+        <v>373251</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>424801</v>
+        <v>423961</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.6170326916839112</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.5758665699555525</v>
+        <v>0.5777446983034694</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6575371906824689</v>
+        <v>0.6562370479797563</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>377</v>
@@ -5445,19 +5445,19 @@
         <v>401161</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>375677</v>
+        <v>376707</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>425787</v>
+        <v>425891</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6180476737907695</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.5787857466230568</v>
+        <v>0.5803730588052463</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6559888151861112</v>
+        <v>0.6561490700918049</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>737</v>
@@ -5466,19 +5466,19 @@
         <v>799793</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>767362</v>
+        <v>767840</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>835512</v>
+        <v>839507</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6175413695014356</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.5925004571603386</v>
+        <v>0.5928692688347903</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6451205900795911</v>
+        <v>0.6482055435131114</v>
       </c>
     </row>
     <row r="15">
@@ -5570,19 +5570,19 @@
         <v>170949</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>150176</v>
+        <v>149129</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>192284</v>
+        <v>193773</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.3576958002464264</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3142297836714558</v>
+        <v>0.3120383608689211</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4023364346908708</v>
+        <v>0.4054516240050576</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>200</v>
@@ -5591,19 +5591,19 @@
         <v>228840</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>207602</v>
+        <v>201313</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>251991</v>
+        <v>251784</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.4605821363089465</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.417838194631488</v>
+        <v>0.4051804338510355</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.5071790185869469</v>
+        <v>0.5067622982630894</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>352</v>
@@ -5612,19 +5612,19 @@
         <v>399789</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>368647</v>
+        <v>371768</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>434010</v>
+        <v>435893</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.4101380488416596</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3781897719021444</v>
+        <v>0.3813918335786793</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4452452515778299</v>
+        <v>0.447176692217437</v>
       </c>
     </row>
     <row r="17">
@@ -5641,19 +5641,19 @@
         <v>306969</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>285634</v>
+        <v>284145</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>327742</v>
+        <v>328789</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.6423041997535736</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.5976635653091293</v>
+        <v>0.5945483759949425</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6857702163285442</v>
+        <v>0.687961639131079</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>233</v>
@@ -5662,19 +5662,19 @@
         <v>268009</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>244858</v>
+        <v>245065</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>289247</v>
+        <v>295536</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.5394178636910535</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.4928209814130531</v>
+        <v>0.4932377017369103</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.5821618053685119</v>
+        <v>0.5948195661489641</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>505</v>
@@ -5683,19 +5683,19 @@
         <v>574978</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>540757</v>
+        <v>538874</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>606120</v>
+        <v>602999</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.5898619511583404</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.55475474842217</v>
+        <v>0.5528233077825628</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6218102280978556</v>
+        <v>0.6186081664213207</v>
       </c>
     </row>
     <row r="18">
@@ -5787,19 +5787,19 @@
         <v>126800</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>109649</v>
+        <v>108360</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>143761</v>
+        <v>145335</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3792667190346227</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.3279667709844641</v>
+        <v>0.3241110640284511</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.429997959749384</v>
+        <v>0.4347062239887155</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>164</v>
@@ -5808,19 +5808,19 @@
         <v>173837</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>154336</v>
+        <v>155257</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>194320</v>
+        <v>192777</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.4601758268470054</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.4085548104396421</v>
+        <v>0.4109925829355991</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.5143971949579313</v>
+        <v>0.5103133109228313</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>288</v>
@@ -5829,19 +5829,19 @@
         <v>300637</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>269261</v>
+        <v>274740</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>327548</v>
+        <v>325430</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.422188682102917</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3781268851984421</v>
+        <v>0.3858204109978163</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.4599795733027105</v>
+        <v>0.4570054619773319</v>
       </c>
     </row>
     <row r="20">
@@ -5858,19 +5858,19 @@
         <v>207530</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>190569</v>
+        <v>188995</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>224681</v>
+        <v>225970</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.6207332809653773</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.5700020402506158</v>
+        <v>0.5652937760112849</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.6720332290155359</v>
+        <v>0.675888935971549</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>190</v>
@@ -5879,19 +5879,19 @@
         <v>203925</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>183442</v>
+        <v>184985</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>223426</v>
+        <v>222505</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.5398241731529946</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.4856028050420686</v>
+        <v>0.4896866890771687</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.5914451895603579</v>
+        <v>0.5890074170644009</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>391</v>
@@ -5900,19 +5900,19 @@
         <v>411455</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>384544</v>
+        <v>386662</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>442831</v>
+        <v>437352</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.5778113178970831</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.5400204266972896</v>
+        <v>0.5429945380226679</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6218731148015579</v>
+        <v>0.6141795890021837</v>
       </c>
     </row>
     <row r="21">
@@ -6004,19 +6004,19 @@
         <v>131737</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>117060</v>
+        <v>116907</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>144665</v>
+        <v>146271</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.5125993013286499</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.455490355553854</v>
+        <v>0.4548934868077257</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.5629035187995388</v>
+        <v>0.5691532059186899</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>207</v>
@@ -6025,19 +6025,19 @@
         <v>273800</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>252442</v>
+        <v>250902</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>293227</v>
+        <v>294036</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6842116386131105</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.6308377772015422</v>
+        <v>0.6269900793738424</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.7327586294481824</v>
+        <v>0.7347802449282417</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>360</v>
@@ -6046,19 +6046,19 @@
         <v>405537</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>381593</v>
+        <v>379521</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>430828</v>
+        <v>431269</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.61709927964357</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5806638710493752</v>
+        <v>0.5775105883274959</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.6555835600031329</v>
+        <v>0.6562555130262144</v>
       </c>
     </row>
     <row r="23">
@@ -6075,19 +6075,19 @@
         <v>125261</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>112333</v>
+        <v>110727</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>139938</v>
+        <v>140091</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.4874006986713501</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.4370964812004613</v>
+        <v>0.4308467940813101</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.544509644446146</v>
+        <v>0.5451065131922742</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>94</v>
@@ -6096,19 +6096,19 @@
         <v>126369</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>106942</v>
+        <v>106133</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>147727</v>
+        <v>149267</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3157883613868895</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.2672413705518177</v>
+        <v>0.2652197550717587</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.3691622227984577</v>
+        <v>0.3730099206261578</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>243</v>
@@ -6117,19 +6117,19 @@
         <v>251630</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>226339</v>
+        <v>225898</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>275574</v>
+        <v>277646</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.3829007203564299</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.3444164399968672</v>
+        <v>0.3437444869737857</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4193361289506248</v>
+        <v>0.4224894116725041</v>
       </c>
     </row>
     <row r="24">
@@ -6221,19 +6221,19 @@
         <v>1147944</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1091606</v>
+        <v>1088256</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1199965</v>
+        <v>1199984</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3381926612854238</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3215950534006219</v>
+        <v>0.3206081735745137</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3535183184946157</v>
+        <v>0.353523931978083</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1396</v>
@@ -6242,19 +6242,19 @@
         <v>1514368</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1455953</v>
+        <v>1454466</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1575227</v>
+        <v>1574632</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.4272393023573018</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.4107592739346166</v>
+        <v>0.410339723347931</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4444092013992952</v>
+        <v>0.444241410252863</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2496</v>
@@ -6263,19 +6263,19 @@
         <v>2662312</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2572534</v>
+        <v>2580133</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2743026</v>
+        <v>2747022</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3836796848024363</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3707413547908247</v>
+        <v>0.3718364302780425</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3953118743132139</v>
+        <v>0.3958876472687944</v>
       </c>
     </row>
     <row r="26">
@@ -6292,19 +6292,19 @@
         <v>2246406</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2194385</v>
+        <v>2194366</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2302744</v>
+        <v>2306094</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6618073387145762</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.6464816815053843</v>
+        <v>0.6464760680219169</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.678404946599378</v>
+        <v>0.6793918264254862</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>1942</v>
@@ -6313,19 +6313,19 @@
         <v>2030174</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>1969315</v>
+        <v>1969910</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2088589</v>
+        <v>2090076</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5727606976426982</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5555907986007049</v>
+        <v>0.555758589747137</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.5892407260653835</v>
+        <v>0.589660276652069</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>4073</v>
@@ -6334,19 +6334,19 @@
         <v>4276580</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4195866</v>
+        <v>4191870</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4366358</v>
+        <v>4358759</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.6163203151975637</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.6046881256867861</v>
+        <v>0.6041123527312056</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6292586452091754</v>
+        <v>0.6281635697219577</v>
       </c>
     </row>
     <row r="27">
@@ -6681,19 +6681,19 @@
         <v>56599</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>37310</v>
+        <v>35985</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>84544</v>
+        <v>81672</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.1387941751032127</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.09149196353757286</v>
+        <v>0.0882427555336333</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.2073212959808207</v>
+        <v>0.200278920094673</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>72</v>
@@ -6702,19 +6702,19 @@
         <v>132379</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>109374</v>
+        <v>105769</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>161288</v>
+        <v>158694</v>
       </c>
       <c r="N4" s="6" t="n">
-        <v>0.3651725844439587</v>
+        <v>0.3651725844439588</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.3017104179229226</v>
+        <v>0.2917659760653127</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.4449177756393567</v>
+        <v>0.4377628992390735</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>97</v>
@@ -6723,19 +6723,19 @@
         <v>188979</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>157508</v>
+        <v>153862</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>225367</v>
+        <v>228198</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.2453297425102272</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.2044751273435755</v>
+        <v>0.1997419930738897</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.2925688469695573</v>
+        <v>0.296244201514599</v>
       </c>
     </row>
     <row r="5">
@@ -6752,19 +6752,19 @@
         <v>351194</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>323249</v>
+        <v>326121</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>370483</v>
+        <v>371808</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.8612058248967874</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.7926787040191792</v>
+        <v>0.7997210799053273</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.9085080364624271</v>
+        <v>0.911757244466367</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>135</v>
@@ -6773,19 +6773,19 @@
         <v>230133</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>201224</v>
+        <v>203818</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>253138</v>
+        <v>256743</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.6348274155560412</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.5550822243606436</v>
+        <v>0.5622371007609254</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.6982895820770773</v>
+        <v>0.7082340239346866</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>282</v>
@@ -6794,19 +6794,19 @@
         <v>581326</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>544938</v>
+        <v>542107</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>612797</v>
+        <v>616443</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.7546702574897729</v>
+        <v>0.7546702574897727</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.7074311530304427</v>
+        <v>0.703755798485401</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.7955248726564245</v>
+        <v>0.80025800692611</v>
       </c>
     </row>
     <row r="6">
@@ -6898,19 +6898,19 @@
         <v>158817</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>134419</v>
+        <v>133104</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>189056</v>
+        <v>184763</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.333940943340837</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.282639707259892</v>
+        <v>0.2798743942109161</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3975225980362438</v>
+        <v>0.3884965272689091</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>177</v>
@@ -6919,19 +6919,19 @@
         <v>190628</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>168463</v>
+        <v>168689</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>213847</v>
+        <v>214647</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3804317998550947</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3361984439867928</v>
+        <v>0.3366485066569344</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.4267689951855763</v>
+        <v>0.4283664909027519</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>277</v>
@@ -6940,19 +6940,19 @@
         <v>349446</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>313496</v>
+        <v>317069</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>383487</v>
+        <v>388866</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3577932310825747</v>
+        <v>0.3577932310825746</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.3209850499565612</v>
+        <v>0.3246436470291303</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3926481595535245</v>
+        <v>0.3981550104243725</v>
       </c>
     </row>
     <row r="8">
@@ -6969,19 +6969,19 @@
         <v>316768</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>286529</v>
+        <v>290822</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>341166</v>
+        <v>342481</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.666059056659163</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.6024774019637563</v>
+        <v>0.6115034727310911</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.7173602927401079</v>
+        <v>0.7201256057890838</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>283</v>
@@ -6990,19 +6990,19 @@
         <v>310455</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>287236</v>
+        <v>286436</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>332620</v>
+        <v>332394</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.6195682001449053</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.5732310048144238</v>
+        <v>0.5716335090972481</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.6638015560132073</v>
+        <v>0.6633514933430656</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>484</v>
@@ -7011,19 +7011,19 @@
         <v>627223</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>593182</v>
+        <v>587803</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>663173</v>
+        <v>659600</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.6422067689174253</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.6073518404464757</v>
+        <v>0.6018449895756276</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.6790149500434386</v>
+        <v>0.6753563529708697</v>
       </c>
     </row>
     <row r="9">
@@ -7115,19 +7115,19 @@
         <v>219323</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>193609</v>
+        <v>193679</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>243370</v>
+        <v>245540</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.3547349891103412</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.3131452712180882</v>
+        <v>0.3132580888229761</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.3936279747492646</v>
+        <v>0.3971381118097376</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>327</v>
@@ -7136,19 +7136,19 @@
         <v>245717</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>225050</v>
+        <v>226101</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>266911</v>
+        <v>266019</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.3964014093212785</v>
+        <v>0.3964014093212787</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.3630605272324618</v>
+        <v>0.3647571293421997</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.4305937933320307</v>
+        <v>0.4291539602949106</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>517</v>
@@ -7157,19 +7157,19 @@
         <v>465039</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>432856</v>
+        <v>435072</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>498355</v>
+        <v>497708</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.3755950398278436</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.3496017161074234</v>
+        <v>0.3513915026884539</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.4025026479849791</v>
+        <v>0.4019806932554824</v>
       </c>
     </row>
     <row r="11">
@@ -7186,19 +7186,19 @@
         <v>398950</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>374903</v>
+        <v>372733</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>424664</v>
+        <v>424594</v>
       </c>
       <c r="G11" s="6" t="n">
-        <v>0.6452650108896588</v>
+        <v>0.6452650108896589</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.6063720252507355</v>
+        <v>0.6028618881902622</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.6868547287819118</v>
+        <v>0.6867419111770238</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>516</v>
@@ -7207,19 +7207,19 @@
         <v>374151</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>352957</v>
+        <v>353849</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>394818</v>
+        <v>393767</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.6035985906787213</v>
+        <v>0.6035985906787215</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.5694062066679694</v>
+        <v>0.5708460397050894</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.6369394727675383</v>
+        <v>0.6352428706578005</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>870</v>
@@ -7228,19 +7228,19 @@
         <v>773101</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>739785</v>
+        <v>740432</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>805284</v>
+        <v>803068</v>
       </c>
       <c r="U11" s="6" t="n">
-        <v>0.6244049601721564</v>
+        <v>0.6244049601721563</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.5974973520150211</v>
+        <v>0.5980193067445175</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.6503982838925766</v>
+        <v>0.6486084973115458</v>
       </c>
     </row>
     <row r="12">
@@ -7332,19 +7332,19 @@
         <v>248916</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>222577</v>
+        <v>223902</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>274362</v>
+        <v>276830</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3558547159215358</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3181992568547147</v>
+        <v>0.320094364404193</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3922324111930392</v>
+        <v>0.3957608215504639</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>396</v>
@@ -7353,19 +7353,19 @@
         <v>258316</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>237703</v>
+        <v>238423</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>278197</v>
+        <v>279073</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.35092116203817</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3229193685168795</v>
+        <v>0.3238966509174128</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3779297598125668</v>
+        <v>0.3791204025924441</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>629</v>
@@ -7374,19 +7374,19 @@
         <v>507232</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>471845</v>
+        <v>472996</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>540424</v>
+        <v>539627</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3533250169462957</v>
+        <v>0.3533250169462958</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3286755066821392</v>
+        <v>0.3294772429383163</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3764460665348376</v>
+        <v>0.3758904930018221</v>
       </c>
     </row>
     <row r="14">
@@ -7403,19 +7403,19 @@
         <v>450572</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>425126</v>
+        <v>422658</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>476911</v>
+        <v>475586</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.6441452840784643</v>
+        <v>0.6441452840784642</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.6077675888069607</v>
+        <v>0.6042391784495362</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.6818007431452854</v>
+        <v>0.6799056355958073</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>743</v>
@@ -7424,19 +7424,19 @@
         <v>477791</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>457910</v>
+        <v>457034</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>498404</v>
+        <v>497684</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.6490788379618301</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.6220702401874331</v>
+        <v>0.6208795974075563</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.6770806314831206</v>
+        <v>0.6761033490825873</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>1174</v>
@@ -7445,19 +7445,19 @@
         <v>928364</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>895172</v>
+        <v>895969</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>963751</v>
+        <v>962600</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.6466749830537042</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.6235539334651622</v>
+        <v>0.6241095069981782</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.6713244933178608</v>
+        <v>0.6705227570616837</v>
       </c>
     </row>
     <row r="15">
@@ -7549,19 +7549,19 @@
         <v>239947</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>218075</v>
+        <v>218797</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>263876</v>
+        <v>263151</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.3950055873043136</v>
+        <v>0.3950055873043137</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.3589985376609161</v>
+        <v>0.3601881962070326</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.4343974699847709</v>
+        <v>0.4332036047897031</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>364</v>
@@ -7570,19 +7570,19 @@
         <v>226651</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>208622</v>
+        <v>208805</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>244249</v>
+        <v>245920</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.3744479884936787</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.344663007130712</v>
+        <v>0.3449646352622587</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.403520896025207</v>
+        <v>0.4062826172930857</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>618</v>
@@ -7591,19 +7591,19 @@
         <v>466598</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>437019</v>
+        <v>435295</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>495773</v>
+        <v>494271</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.3847450940950207</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.3603549863684938</v>
+        <v>0.3589333674446226</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.4088018557883613</v>
+        <v>0.4075631747930405</v>
       </c>
     </row>
     <row r="17">
@@ -7620,19 +7620,19 @@
         <v>367506</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>343577</v>
+        <v>344302</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>389378</v>
+        <v>388656</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.6049944126956863</v>
+        <v>0.6049944126956864</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.565602530015229</v>
+        <v>0.566796395210297</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.6410014623390839</v>
+        <v>0.6398118037929674</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>633</v>
@@ -7641,19 +7641,19 @@
         <v>378643</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>361045</v>
+        <v>359374</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>396672</v>
+        <v>396489</v>
       </c>
       <c r="N17" s="6" t="n">
-        <v>0.6255520115063213</v>
+        <v>0.6255520115063214</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.5964791039747933</v>
+        <v>0.5937173827069147</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.6553369928692879</v>
+        <v>0.6550353647377415</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>1040</v>
@@ -7662,19 +7662,19 @@
         <v>746149</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>716974</v>
+        <v>718476</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>775728</v>
+        <v>777452</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.6152549059049793</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.5911981442116387</v>
+        <v>0.5924368252069596</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.6396450136315062</v>
+        <v>0.6410666325553772</v>
       </c>
     </row>
     <row r="18">
@@ -7766,19 +7766,19 @@
         <v>127471</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>112384</v>
+        <v>112604</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>144140</v>
+        <v>144297</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3139481536344642</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2767888892440307</v>
+        <v>0.277330308591018</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3550017587206932</v>
+        <v>0.3553886483643857</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>296</v>
@@ -7787,19 +7787,19 @@
         <v>163446</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>148258</v>
+        <v>148953</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>177939</v>
+        <v>177327</v>
       </c>
       <c r="N19" s="6" t="n">
-        <v>0.3726818006846599</v>
+        <v>0.3726818006846598</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.3380499126831258</v>
+        <v>0.3396340882376219</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.4057270600166242</v>
+        <v>0.4043319094968001</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>471</v>
@@ -7808,19 +7808,19 @@
         <v>290918</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>267923</v>
+        <v>267203</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>311145</v>
+        <v>310464</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3444464355759431</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3172202544859335</v>
+        <v>0.3163677671001649</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3683955135695774</v>
+        <v>0.3675893152406904</v>
       </c>
     </row>
     <row r="20">
@@ -7837,19 +7837,19 @@
         <v>278556</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>261887</v>
+        <v>261730</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>293643</v>
+        <v>293423</v>
       </c>
       <c r="G20" s="6" t="n">
-        <v>0.686051846365536</v>
+        <v>0.6860518463655358</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.6449982412793066</v>
+        <v>0.6446113516356143</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.7232111107559692</v>
+        <v>0.722669691408982</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>530</v>
@@ -7858,19 +7858,19 @@
         <v>275122</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>260629</v>
+        <v>261241</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>290310</v>
+        <v>289615</v>
       </c>
       <c r="N20" s="6" t="n">
-        <v>0.6273181993153403</v>
+        <v>0.6273181993153402</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.5942729399833765</v>
+        <v>0.5956680905031998</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.6619500873168741</v>
+        <v>0.6603659117623779</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>924</v>
@@ -7879,19 +7879,19 @@
         <v>553677</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>533450</v>
+        <v>534131</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>576672</v>
+        <v>577392</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.6555535644240569</v>
+        <v>0.655553564424057</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.6316044864304224</v>
+        <v>0.6324106847593095</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.6827797455140665</v>
+        <v>0.6836322328998351</v>
       </c>
     </row>
     <row r="21">
@@ -7983,19 +7983,19 @@
         <v>127230</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>113159</v>
+        <v>112408</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>141848</v>
+        <v>141443</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.4128524113422411</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.3671927278134919</v>
+        <v>0.364755053869633</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.4602865220536329</v>
+        <v>0.4589726804382677</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>535</v>
@@ -8004,19 +8004,19 @@
         <v>291693</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>277128</v>
+        <v>277790</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>307924</v>
+        <v>308102</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.6305518689412746</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.5990671807843359</v>
+        <v>0.6004970668697115</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.6656375801755319</v>
+        <v>0.6660232138173152</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>719</v>
@@ -8025,19 +8025,19 @@
         <v>418924</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>396752</v>
+        <v>397214</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>439986</v>
+        <v>441444</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.5435103897105733</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.5147442895464514</v>
+        <v>0.5153439662109174</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.5708368699631128</v>
+        <v>0.5727287000212149</v>
       </c>
     </row>
     <row r="23">
@@ -8054,19 +8054,19 @@
         <v>180944</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>166326</v>
+        <v>166731</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>195015</v>
+        <v>195766</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.5871475886577588</v>
+        <v>0.587147588657759</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.5397134779463668</v>
+        <v>0.5410273195617322</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.6328072721865079</v>
+        <v>0.635244946130367</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>344</v>
@@ -8075,19 +8075,19 @@
         <v>170907</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>154676</v>
+        <v>154498</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>185472</v>
+        <v>184810</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.3694481310587253</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.3343624198244677</v>
+        <v>0.3339767861826848</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.4009328192156641</v>
+        <v>0.3995029331302887</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>616</v>
@@ -8096,19 +8096,19 @@
         <v>351850</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>330788</v>
+        <v>329330</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>374022</v>
+        <v>373560</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.4564896102894267</v>
+        <v>0.4564896102894266</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.4291631300368872</v>
+        <v>0.4272712999787853</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.4852557104535484</v>
+        <v>0.4846560337890832</v>
       </c>
     </row>
     <row r="24">
@@ -8200,19 +8200,19 @@
         <v>1178305</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1114025</v>
+        <v>1109009</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1241214</v>
+        <v>1236492</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.334480302848111</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3162332975722714</v>
+        <v>0.3148094927891202</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.352337987108798</v>
+        <v>0.3509975941629788</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>2167</v>
@@ -8221,19 +8221,19 @@
         <v>1508830</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1459251</v>
+        <v>1453119</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1565482</v>
+        <v>1558171</v>
       </c>
       <c r="N25" s="6" t="n">
-        <v>0.4049428888714752</v>
+        <v>0.4049428888714753</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3916369186741544</v>
+        <v>0.3899910055452638</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.4201473400238085</v>
+        <v>0.4181851399655879</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>3328</v>
@@ -8242,19 +8242,19 @@
         <v>2687135</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2601476</v>
+        <v>2602804</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2766942</v>
+        <v>2773500</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3706993864467603</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3588824837130749</v>
+        <v>0.3590656153863635</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3817090729197802</v>
+        <v>0.3826137442505274</v>
       </c>
     </row>
     <row r="26">
@@ -8271,19 +8271,19 @@
         <v>2344489</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>2281580</v>
+        <v>2286302</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>2408769</v>
+        <v>2413785</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.6655196971518892</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.647662012891202</v>
+        <v>0.6490024058370208</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.6837667024277285</v>
+        <v>0.6851905072108796</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>3184</v>
@@ -8292,19 +8292,19 @@
         <v>2217201</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>2160549</v>
+        <v>2167860</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>2266780</v>
+        <v>2272912</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.5950571111285246</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.5798526599761916</v>
+        <v>0.5818148600344121</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.6083630813258455</v>
+        <v>0.6100089944547364</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>5390</v>
@@ -8313,19 +8313,19 @@
         <v>4561690</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>4481883</v>
+        <v>4475325</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>4647349</v>
+        <v>4646021</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.6293006135532399</v>
+        <v>0.6293006135532397</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.61829092708022</v>
+        <v>0.6173862557494724</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.6411175162869251</v>
+        <v>0.6409343846136363</v>
       </c>
     </row>
     <row r="27">
